--- a/may2023.xlsx
+++ b/may2023.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LocalRepo\Timesheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CD4FC2-71C5-41D2-AA08-8DAD9E344D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
   <si>
     <t/>
   </si>
@@ -91,9 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +119,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,7 +135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFb7b7b7"/>
+        <fgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -138,16 +161,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -155,71 +178,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -230,10 +283,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -271,71 +324,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -363,7 +416,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -386,11 +439,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -399,13 +452,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -415,7 +468,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -424,7 +477,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -433,7 +486,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -441,10 +494,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -509,35 +562,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="29.25" customFormat="1" s="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -617,7 +661,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -649,7 +693,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -681,7 +725,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -713,7 +757,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -745,7 +789,7 @@
       </c>
       <c r="P6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -795,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -819,7 +863,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -853,7 +897,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -887,7 +931,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -919,7 +963,7 @@
       </c>
       <c r="P11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -949,7 +993,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -979,7 +1023,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1053,7 +1097,7 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1085,7 +1129,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1117,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1191,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1181,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1209,7 +1253,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1259,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>22</v>
       </c>
@@ -1283,127 +1327,161 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="7">
         <v>45068</v>
       </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C23" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20">
+        <v>4</v>
+      </c>
+      <c r="I23" s="20">
+        <v>1</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="7">
         <v>45069</v>
       </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C24" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20">
+        <v>2</v>
+      </c>
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="7">
         <v>45070</v>
       </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C25" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20">
+        <v>5</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20">
+        <v>2</v>
+      </c>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="7">
         <v>45071</v>
       </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C26" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20">
+        <v>4</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+    </row>
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="7">
         <v>45072</v>
       </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C27" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20">
+        <v>2</v>
+      </c>
+      <c r="G27" s="20">
+        <v>2</v>
+      </c>
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>21</v>
       </c>
@@ -1453,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>22</v>
       </c>
@@ -1477,127 +1555,163 @@
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="7">
         <v>45075</v>
       </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C30" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20">
+        <v>2</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20">
+        <v>4</v>
+      </c>
+      <c r="I30" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="7">
         <v>45076</v>
       </c>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C31" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20">
+        <v>2</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20">
+        <v>2</v>
+      </c>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="7">
         <v>45077</v>
       </c>
-      <c r="C32" s="9">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C32" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20">
+        <v>5</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="7">
         <v>45078</v>
       </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C33" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20">
+        <v>6</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20">
+        <v>1</v>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="7">
         <v>45079</v>
       </c>
-      <c r="C34" s="9">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C34" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20">
+        <v>1</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="20">
+        <v>2</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="20">
+        <v>2</v>
+      </c>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20">
+        <v>2</v>
+      </c>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>21</v>
       </c>
@@ -1647,37 +1761,1032 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="21">
+        <v>45082</v>
+      </c>
+      <c r="C36" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20">
+        <v>1</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="I36" s="20">
+        <v>1</v>
+      </c>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="21">
+        <v>45083</v>
+      </c>
+      <c r="C37" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="I37" s="20">
+        <v>1</v>
+      </c>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20">
+        <v>1</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20">
+        <v>2</v>
+      </c>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="23">
+        <v>45084</v>
+      </c>
+      <c r="C38" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="22">
+        <v>2</v>
+      </c>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="23">
+        <v>45085</v>
+      </c>
+      <c r="C39" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="22">
+        <v>2</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="22">
+        <v>2</v>
+      </c>
+      <c r="I39" s="22">
+        <v>3</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="21">
+        <v>45086</v>
+      </c>
+      <c r="C40" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D40" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="26">
+        <v>45087</v>
+      </c>
+      <c r="C41" s="25">
+        <v>37.5</v>
+      </c>
+      <c r="D41" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="E41" s="25">
+        <v>0</v>
+      </c>
+      <c r="F41" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="G41" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="25">
+        <v>15.5</v>
+      </c>
+      <c r="I41" s="25">
+        <v>5</v>
+      </c>
+      <c r="J41" s="25">
+        <v>0</v>
+      </c>
+      <c r="K41" s="25">
+        <v>0</v>
+      </c>
+      <c r="L41" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="M41" s="25">
+        <v>0</v>
+      </c>
+      <c r="N41" s="25">
+        <v>0</v>
+      </c>
+      <c r="O41" s="25">
+        <v>2</v>
+      </c>
+      <c r="P41" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="26">
+        <v>45088</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="21">
+        <v>45089</v>
+      </c>
+      <c r="C43" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="21">
+        <v>45090</v>
+      </c>
+      <c r="C44" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D44" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="21">
+        <v>45091</v>
+      </c>
+      <c r="C45" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D45" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="21">
+        <v>45092</v>
+      </c>
+      <c r="C46" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D46" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="21">
+        <v>45093</v>
+      </c>
+      <c r="C47" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D47" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="26">
+        <v>45094</v>
+      </c>
+      <c r="C48" s="25">
+        <v>37.5</v>
+      </c>
+      <c r="D48" s="25">
+        <v>30</v>
+      </c>
+      <c r="E48" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="F48" s="25">
+        <v>0</v>
+      </c>
+      <c r="G48" s="25">
+        <v>0</v>
+      </c>
+      <c r="H48" s="25">
+        <v>0</v>
+      </c>
+      <c r="I48" s="25">
+        <v>0</v>
+      </c>
+      <c r="J48" s="25">
+        <v>0</v>
+      </c>
+      <c r="K48" s="25">
+        <v>0</v>
+      </c>
+      <c r="L48" s="25">
+        <v>0</v>
+      </c>
+      <c r="M48" s="25">
+        <v>0</v>
+      </c>
+      <c r="N48" s="25">
+        <v>0</v>
+      </c>
+      <c r="O48" s="25">
+        <v>0</v>
+      </c>
+      <c r="P48" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="26">
+        <v>45095</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="21">
+        <v>45096</v>
+      </c>
+      <c r="C50" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D50" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="21">
+        <v>45097</v>
+      </c>
+      <c r="C51" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D51" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="21">
+        <v>45098</v>
+      </c>
+      <c r="C52" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D52" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="21">
+        <v>45099</v>
+      </c>
+      <c r="C53" s="20">
+        <v>0</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="21">
+        <v>45100</v>
+      </c>
+      <c r="C54" s="20">
+        <v>0</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="26">
+        <v>45101</v>
+      </c>
+      <c r="C55" s="25">
+        <v>22.5</v>
+      </c>
+      <c r="D55" s="25">
+        <v>22.5</v>
+      </c>
+      <c r="E55" s="25">
+        <v>0</v>
+      </c>
+      <c r="F55" s="25">
+        <v>0</v>
+      </c>
+      <c r="G55" s="25">
+        <v>0</v>
+      </c>
+      <c r="H55" s="25">
+        <v>0</v>
+      </c>
+      <c r="I55" s="25">
+        <v>0</v>
+      </c>
+      <c r="J55" s="25">
+        <v>0</v>
+      </c>
+      <c r="K55" s="25">
+        <v>0</v>
+      </c>
+      <c r="L55" s="25">
+        <v>0</v>
+      </c>
+      <c r="M55" s="25">
+        <v>0</v>
+      </c>
+      <c r="N55" s="25">
+        <v>0</v>
+      </c>
+      <c r="O55" s="25">
+        <v>0</v>
+      </c>
+      <c r="P55" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="26">
+        <v>45102</v>
+      </c>
+      <c r="C56" s="25">
+        <v>0</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="21">
+        <v>45103</v>
+      </c>
+      <c r="C57" s="20">
+        <v>0</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="21">
+        <v>45104</v>
+      </c>
+      <c r="C58" s="20">
+        <v>0</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="21">
+        <v>45105</v>
+      </c>
+      <c r="C59" s="20">
+        <v>0</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="21">
+        <v>45106</v>
+      </c>
+      <c r="C60" s="20">
+        <v>0</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="21">
+        <v>45107</v>
+      </c>
+      <c r="C61" s="20">
+        <v>0</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="26">
+        <v>45108</v>
+      </c>
+      <c r="C62" s="25">
+        <v>0</v>
+      </c>
+      <c r="D62" s="25">
+        <v>0</v>
+      </c>
+      <c r="E62" s="25">
+        <v>0</v>
+      </c>
+      <c r="F62" s="25">
+        <v>0</v>
+      </c>
+      <c r="G62" s="25">
+        <v>0</v>
+      </c>
+      <c r="H62" s="25">
+        <v>0</v>
+      </c>
+      <c r="I62" s="25">
+        <v>0</v>
+      </c>
+      <c r="J62" s="25">
+        <v>0</v>
+      </c>
+      <c r="K62" s="25">
+        <v>0</v>
+      </c>
+      <c r="L62" s="25">
+        <v>0</v>
+      </c>
+      <c r="M62" s="25">
+        <v>0</v>
+      </c>
+      <c r="N62" s="25">
+        <v>0</v>
+      </c>
+      <c r="O62" s="25">
+        <v>0</v>
+      </c>
+      <c r="P62" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="26">
+        <v>45109</v>
+      </c>
+      <c r="C63" s="25">
+        <v>0</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="21">
+        <v>45110</v>
+      </c>
+      <c r="C64" s="20">
+        <v>0</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="21">
+        <v>45111</v>
+      </c>
+      <c r="C65" s="20">
+        <v>0</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="21">
+        <v>45112</v>
+      </c>
+      <c r="C66" s="20">
+        <v>0</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="21">
+        <v>45113</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="21">
+        <v>45114</v>
+      </c>
+      <c r="C68" s="20">
+        <v>0</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="26">
+        <v>45115</v>
+      </c>
+      <c r="C69" s="25">
+        <v>0</v>
+      </c>
+      <c r="D69" s="25">
+        <v>0</v>
+      </c>
+      <c r="E69" s="25">
+        <v>0</v>
+      </c>
+      <c r="F69" s="25">
+        <v>0</v>
+      </c>
+      <c r="G69" s="25">
+        <v>0</v>
+      </c>
+      <c r="H69" s="25">
+        <v>0</v>
+      </c>
+      <c r="I69" s="25">
+        <v>0</v>
+      </c>
+      <c r="J69" s="25">
+        <v>0</v>
+      </c>
+      <c r="K69" s="25">
+        <v>0</v>
+      </c>
+      <c r="L69" s="25">
+        <v>0</v>
+      </c>
+      <c r="M69" s="25">
+        <v>0</v>
+      </c>
+      <c r="N69" s="25">
+        <v>0</v>
+      </c>
+      <c r="O69" s="25">
+        <v>0</v>
+      </c>
+      <c r="P69" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9">
-        <v>34</v>
-      </c>
-      <c r="G36" s="9">
-        <v>9</v>
-      </c>
-      <c r="H36" s="9">
-        <v>73</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20">
+        <v>120</v>
+      </c>
+      <c r="E70" s="20">
+        <v>15</v>
+      </c>
+      <c r="F70" s="20">
+        <v>6</v>
+      </c>
+      <c r="G70" s="20">
+        <v>1</v>
+      </c>
+      <c r="H70" s="20">
+        <v>25.5</v>
+      </c>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>